--- a/documents/test/4_Testing_Teamleiter.xlsx
+++ b/documents/test/4_Testing_Teamleiter.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
-  <si>
-    <t>Gast</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -43,18 +40,6 @@
     <t>Testdatum</t>
   </si>
   <si>
-    <t>Registrierung</t>
-  </si>
-  <si>
-    <t>Registrieren</t>
-  </si>
-  <si>
-    <t>Registrierung erfolgreich</t>
-  </si>
-  <si>
-    <t>Angelegter Nutzer muss noch freigeschaltet werden</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -73,68 +58,155 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Startseite angesehen</t>
-  </si>
-  <si>
-    <t>Startseite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Funktionen</t>
-  </si>
-  <si>
-    <t>Funktionsseite angesehen</t>
-  </si>
-  <si>
-    <t>Funktionsseite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Über Uns</t>
-  </si>
-  <si>
-    <t>Über Uns-Seite angesehen</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>Über Uns-Seite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Zeitachse angeklickt</t>
-  </si>
-  <si>
-    <t>Zeitachse wird angezeigt</t>
-  </si>
-  <si>
-    <t>Zeitachse wird nicht vollständig dargestellt</t>
-  </si>
-  <si>
-    <t>Impressum</t>
-  </si>
-  <si>
-    <t>Impressum angeklickt</t>
-  </si>
-  <si>
-    <t>Impressum wird geöffnet</t>
-  </si>
-  <si>
-    <t>Overlay wird dargestellt aber noch nicht mit Daten gefüllt</t>
-  </si>
-  <si>
-    <t>Alle Module</t>
-  </si>
-  <si>
-    <t>Anklicken von PAMS-Überschrift</t>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard angeklickt</t>
+  </si>
+  <si>
+    <t>Dashboard wird angezeigt</t>
+  </si>
+  <si>
+    <t>Maus hovert über Ganttplan</t>
+  </si>
+  <si>
+    <t>Zusatzinfo wird angezeigt</t>
+  </si>
+  <si>
+    <t>Allerdings in Englisch</t>
+  </si>
+  <si>
+    <t>Antrag öffnen</t>
+  </si>
+  <si>
+    <t>Antrag wird geöffnet</t>
+  </si>
+  <si>
+    <t>Fehler tritt auf</t>
+  </si>
+  <si>
+    <t>Call to a member function fetchAll()</t>
+  </si>
+  <si>
+    <t>Anträge</t>
+  </si>
+  <si>
+    <t>Antragsseite angeklickt</t>
+  </si>
+  <si>
+    <t>Antragsseite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Tabellenansicht</t>
+  </si>
+  <si>
+    <t>Ansicht als Tabelle</t>
+  </si>
+  <si>
+    <t>Antrag kann nicht geöffnet werden</t>
+  </si>
+  <si>
+    <t>Kommt durch die Entfernung der Arbeitspakettabelle</t>
+  </si>
+  <si>
+    <t>Projekt aus Tabellensicht öffnen</t>
+  </si>
+  <si>
+    <t>Kein Test möglich da Antrag nicht geöffnet werden kann</t>
+  </si>
+  <si>
+    <t>Suche ausgeführt</t>
+  </si>
+  <si>
+    <t>Suchergebnis wird angezeigt</t>
+  </si>
+  <si>
+    <t>Suchergebnis wird nicht angezeigt</t>
+  </si>
+  <si>
+    <t>Filter einstellen</t>
+  </si>
+  <si>
+    <t>Filter wird ausgeführt</t>
+  </si>
+  <si>
+    <t>Filter noch nicht implementiert</t>
+  </si>
+  <si>
+    <t>Projektantrag bearbeiten</t>
+  </si>
+  <si>
+    <t>Projektantrag wird dargestellt</t>
+  </si>
+  <si>
+    <t>Fehlermeldungen für Meilenstein/Leistung</t>
+  </si>
+  <si>
+    <t>Keine Meilensteine / Leistung zugeordnet</t>
+  </si>
+  <si>
+    <t>Projektantrag kann nicht bearbeitet werden</t>
+  </si>
+  <si>
+    <t>Wenn kein Projektleiter zugeordnet ist, dann Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Projektantrag löschen</t>
+  </si>
+  <si>
+    <t>Antrag wird nicht gelöscht</t>
+  </si>
+  <si>
+    <t>Antrag wird gelöscht</t>
+  </si>
+  <si>
+    <t>m2 ist Mitarbeiter und darf keine Anträge löschen. Vor allem keine fremden Anträge</t>
+  </si>
+  <si>
+    <t>PDf-Export</t>
+  </si>
+  <si>
+    <t>PDf wird erstellt</t>
+  </si>
+  <si>
+    <t>PDF wird erstellt</t>
+  </si>
+  <si>
+    <t>Stammdaten</t>
+  </si>
+  <si>
+    <t>Stammdaten angeklickt</t>
+  </si>
+  <si>
+    <t>Stammdatenseite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Anzeige "Keine Berechtigung"</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Klick auf PAMS</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>User wird ausgeloggt</t>
+  </si>
+  <si>
+    <t>m4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +224,20 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,20 +394,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -645,7 +752,7 @@
   <dimension ref="B1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,144 +772,142 @@
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I6" s="10">
-        <v>42605</v>
+        <v>42613</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11">
-        <v>42605</v>
+        <v>8</v>
+      </c>
+      <c r="I7" s="10">
+        <v>42613</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11">
-        <v>42605</v>
+        <v>14</v>
+      </c>
+      <c r="I9" s="10">
+        <v>42613</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -810,188 +915,306 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I10" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11">
-        <v>42605</v>
+        <v>14</v>
+      </c>
+      <c r="I13" s="10">
+        <v>42613</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10">
+        <v>42613</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="10">
+        <v>42613</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="10">
+        <v>42613</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="10">
+        <v>42613</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="10">
+        <v>42613</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="10">
+        <v>42613</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
@@ -1204,14 +1427,14 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
@@ -1304,12 +1527,12 @@
       <c r="I53" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H6:H15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H6:H22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Nein"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Ja"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Nein"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
